--- a/9_Excel Formula Sheet.xlsx
+++ b/9_Excel Formula Sheet.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\firoz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Vi.685\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFF0AAF-E266-4A83-9BB0-BD5B4CCE5BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Number Functions" sheetId="1" r:id="rId1"/>
     <sheet name="String Functions" sheetId="3" r:id="rId2"/>
     <sheet name="Subtotal" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="121">
   <si>
     <t>Name</t>
   </si>
@@ -254,11 +253,161 @@
   <si>
     <t>Perform upper, lower and proper on Full Name column in M N and O column repectively.</t>
   </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>Rajbhai</t>
+  </si>
+  <si>
+    <t>Meetbhai</t>
+  </si>
+  <si>
+    <t>Sureshbhai</t>
+  </si>
+  <si>
+    <t>Jaybhai</t>
+  </si>
+  <si>
+    <t>Riyabhai</t>
+  </si>
+  <si>
+    <t>Krutibhai</t>
+  </si>
+  <si>
+    <t>RaPatel</t>
+  </si>
+  <si>
+    <t>R123j P123tel</t>
+  </si>
+  <si>
+    <t>Ra</t>
+  </si>
+  <si>
+    <t>atel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pa</t>
+  </si>
+  <si>
+    <t>RAJ PATEL</t>
+  </si>
+  <si>
+    <t>raj patel</t>
+  </si>
+  <si>
+    <t>MeDave</t>
+  </si>
+  <si>
+    <t>Meet D123ve</t>
+  </si>
+  <si>
+    <t>Me</t>
+  </si>
+  <si>
+    <t>t D</t>
+  </si>
+  <si>
+    <t>MEET DAVE</t>
+  </si>
+  <si>
+    <t>meet dave</t>
+  </si>
+  <si>
+    <t>SuShah</t>
+  </si>
+  <si>
+    <t>Suresh Sh123h</t>
+  </si>
+  <si>
+    <t>Su</t>
+  </si>
+  <si>
+    <t>esh</t>
+  </si>
+  <si>
+    <t>SURESH SHAH</t>
+  </si>
+  <si>
+    <t>suresh shah</t>
+  </si>
+  <si>
+    <t>JaSharma</t>
+  </si>
+  <si>
+    <t>J123y Sh123rm123</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>arma</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sh</t>
+  </si>
+  <si>
+    <t>JAY SHARMA</t>
+  </si>
+  <si>
+    <t>jay sharma</t>
+  </si>
+  <si>
+    <t>RiPatel</t>
+  </si>
+  <si>
+    <t>Riy123 P123tel</t>
+  </si>
+  <si>
+    <t>Ri</t>
+  </si>
+  <si>
+    <t>a P</t>
+  </si>
+  <si>
+    <t>RIYA PATEL</t>
+  </si>
+  <si>
+    <t>riya patel</t>
+  </si>
+  <si>
+    <t>KrVed</t>
+  </si>
+  <si>
+    <t>Kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ti </t>
+  </si>
+  <si>
+    <t>KRUTI VED</t>
+  </si>
+  <si>
+    <t>kruti ved</t>
+  </si>
+  <si>
+    <t>Blue Total</t>
+  </si>
+  <si>
+    <t>Green Total</t>
+  </si>
+  <si>
+    <t>Red Total</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -304,13 +453,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -592,12 +740,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,6 +803,21 @@
       <c r="E2">
         <v>80</v>
       </c>
+      <c r="F2">
+        <v>24.691358024691358</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2">
+        <v>3.24</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -673,6 +835,21 @@
       <c r="E3">
         <v>60</v>
       </c>
+      <c r="F3">
+        <v>20.761245674740483</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3">
+        <v>2.89</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -690,6 +867,21 @@
       <c r="E4">
         <v>82</v>
       </c>
+      <c r="F4">
+        <v>33.694937541091385</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4">
+        <v>2.4336000000000002</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -707,6 +899,21 @@
       <c r="E5">
         <v>75</v>
       </c>
+      <c r="F5">
+        <v>21.22000905387053</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5">
+        <v>3.5344000000000002</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -724,6 +931,21 @@
       <c r="E6">
         <v>79</v>
       </c>
+      <c r="F6">
+        <v>22.115842221662326</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6">
+        <v>3.5720999999999998</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -741,30 +963,105 @@
       <c r="E7">
         <v>72</v>
       </c>
+      <c r="F7">
+        <v>23.510204081632654</v>
+      </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7">
+        <v>3.0625</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>120</v>
+      </c>
+      <c r="D9">
+        <v>1058</v>
+      </c>
+      <c r="E9">
+        <v>448</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>189</v>
+      </c>
+      <c r="E10">
+        <v>82</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>156</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>176.33333333333334</v>
+      </c>
+      <c r="E12">
+        <v>74.666666666666671</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -799,11 +1096,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03DA752-B41D-451F-B301-251760D61E29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,6 +1113,9 @@
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -875,6 +1175,42 @@
       <c r="C2" t="s">
         <v>51</v>
       </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -886,6 +1222,42 @@
       <c r="C3" t="s">
         <v>52</v>
       </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -897,6 +1269,42 @@
       <c r="C4" t="s">
         <v>53</v>
       </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" t="s">
+        <v>97</v>
+      </c>
+      <c r="O4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -908,6 +1316,42 @@
       <c r="C5" t="s">
         <v>51</v>
       </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -919,6 +1363,42 @@
       <c r="C6" t="s">
         <v>54</v>
       </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N6" t="s">
+        <v>110</v>
+      </c>
+      <c r="O6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -930,16 +1410,51 @@
       <c r="C7" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" t="s">
+        <v>115</v>
+      </c>
+      <c r="N7" t="s">
+        <v>116</v>
+      </c>
+      <c r="O7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I8" s="4"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -982,14 +1497,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -1010,7 +1525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1024,7 +1539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1038,7 +1553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1052,26 +1567,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
+    <row r="5" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <f>SUBTOTAL(9,C2:C4)</f>
+        <v>75</v>
       </c>
       <c r="D5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <f>SUBTOTAL(9,D2:D4)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1080,40 +1594,39 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8">
+        <f>SUBTOTAL(9,C6:C7)</f>
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <f>SUBTOTAL(9,D6:D7)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>35</v>
-      </c>
-      <c r="D8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>35</v>
@@ -1122,8 +1635,62 @@
         <v>30</v>
       </c>
     </row>
+    <row r="10" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12">
+        <f>SUBTOTAL(9,C9:C11)</f>
+        <v>105</v>
+      </c>
+      <c r="D12">
+        <f>SUBTOTAL(9,D9:D11)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13">
+        <f>SUBTOTAL(9,C2:C11)</f>
+        <v>220</v>
+      </c>
+      <c r="D13">
+        <f>SUBTOTAL(9,D2:D11)</f>
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D7">
+  <sortState ref="A2:D7">
     <sortCondition ref="A2:A7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
